--- a/data/trans_orig/VUL_DEP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en País Vasco</t>
+          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en Andalucia</t>
+          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en C.Valenciana</t>
+          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_DEP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3620</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5866</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7393</t>
+          <t>7871</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5379</t>
+          <t>5898</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9603</t>
+          <t>10472</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>11013</t>
+          <t>10522</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8225</t>
+          <t>8095</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>14084</t>
+          <t>13334</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84223</t>
+          <t>79565</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81977</t>
+          <t>78235</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85709</t>
+          <t>80711</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>120251</t>
+          <t>113515</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>118041</t>
+          <t>110914</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>122265</t>
+          <t>115488</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>204475</t>
+          <t>193081</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>201404</t>
+          <t>190269</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>207263</t>
+          <t>195508</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9198</t>
+          <t>9140</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>6811</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12520</t>
+          <t>12260</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17198</t>
+          <t>16659</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14016</t>
+          <t>13298</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20703</t>
+          <t>20196</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>26396</t>
+          <t>25799</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>22354</t>
+          <t>21862</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>30275</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>442767</t>
+          <t>451698</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>439445</t>
+          <t>448578</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>445013</t>
+          <t>454027</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>414459</t>
+          <t>428318</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>410954</t>
+          <t>424781</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>417641</t>
+          <t>431679</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>857226</t>
+          <t>880016</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>852532</t>
+          <t>875540</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>861268</t>
+          <t>883953</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,59%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>561</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4951</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6717</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5771</t>
+          <t>6418</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3937</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8143</t>
+          <t>9053</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>149562</t>
+          <t>173897</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>147884</t>
+          <t>172500</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>150346</t>
+          <t>174803</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>190366</t>
+          <t>223582</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>187963</t>
+          <t>221482</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>191837</t>
+          <t>225319</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>339928</t>
+          <t>397479</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>337556</t>
+          <t>394844</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>341762</t>
+          <t>399395</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,89%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14275</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10985</t>
+          <t>10398</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17499</t>
+          <t>16593</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28905</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24839</t>
+          <t>25302</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33792</t>
+          <t>34822</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>43180</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>37174</t>
+          <t>37495</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>48735</t>
+          <t>48376</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>676552</t>
+          <t>705160</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>673328</t>
+          <t>701826</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>679842</t>
+          <t>708021</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>725076</t>
+          <t>765415</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>720189</t>
+          <t>760074</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>729142</t>
+          <t>769594</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1401629</t>
+          <t>1470575</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1396074</t>
+          <t>1464939</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1407635</t>
+          <t>1475820</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>97,52%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16362</t>
+          <t>15664</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32863</t>
+          <t>32661</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>51620</t>
+          <t>51021</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>75440</t>
+          <t>74970</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>71589</t>
+          <t>71810</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>98929</t>
+          <t>98215</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,73%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>195434</t>
+          <t>195636</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>211935</t>
+          <t>212633</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,61%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>320757</t>
+          <t>321227</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>344577</t>
+          <t>345176</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>81,08%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>525565</t>
+          <t>526279</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>552905</t>
+          <t>552684</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,16%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>88,5%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>28334</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72544</t>
+          <t>72038</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55637</t>
+          <t>54056</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>116461</t>
+          <t>116098</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>101220</t>
+          <t>102541</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>176828</t>
+          <t>177953</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1335609</t>
+          <t>1336115</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1379253</t>
+          <t>1379819</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1266692</t>
+          <t>1267055</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1327516</t>
+          <t>1329097</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2614478</t>
+          <t>2613353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2690086</t>
+          <t>2688765</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,33%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14706</t>
+          <t>14981</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35924</t>
+          <t>34047</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11338</t>
+          <t>11270</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25480</t>
+          <t>25436</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>28833</t>
+          <t>29148</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>53887</t>
+          <t>54893</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>423045</t>
+          <t>424922</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>444263</t>
+          <t>443988</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>417894</t>
+          <t>417938</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>432036</t>
+          <t>432104</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>848456</t>
+          <t>847450</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>873510</t>
+          <t>873195</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,77%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>66055</t>
+          <t>63653</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>123880</t>
+          <t>123279</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>121171</t>
+          <t>124702</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>199437</t>
+          <t>196507</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>207012</t>
+          <t>210761</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>306219</t>
+          <t>310232</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,18%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1971539</t>
+          <t>1972140</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2029364</t>
+          <t>2031766</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2023287</t>
+          <t>2026217</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2101553</t>
+          <t>2098022</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4011924</t>
+          <t>4007911</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4111131</t>
+          <t>4107382</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>95,12%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_DEP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>24364</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>16643</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>34605</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7871</t>
+          <t>70399</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5898</t>
+          <t>58569</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10472</t>
+          <t>84254</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>139</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10522</t>
+          <t>94764</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8095</t>
+          <t>80785</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13334</t>
+          <t>110275</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>16,0%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79565</t>
+          <t>231028</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78235</t>
+          <t>220787</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80711</t>
+          <t>238749</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>587</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>113515</t>
+          <t>363397</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>110914</t>
+          <t>349542</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>115488</t>
+          <t>375227</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>848</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>193081</t>
+          <t>594425</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>190269</t>
+          <t>578914</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>195508</t>
+          <t>608404</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>88,28%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>987</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9140</t>
+          <t>59601</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6811</t>
+          <t>44364</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12260</t>
+          <t>78066</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16659</t>
+          <t>95942</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13298</t>
+          <t>80113</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20196</t>
+          <t>114377</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>25799</t>
+          <t>155543</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>21862</t>
+          <t>134514</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30275</t>
+          <t>182147</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>451698</t>
+          <t>1226637</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>448578</t>
+          <t>1208172</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>454027</t>
+          <t>1241874</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>428318</t>
+          <t>1171943</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>424781</t>
+          <t>1153508</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>431679</t>
+          <t>1187772</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>2552</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>880016</t>
+          <t>2398580</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>875540</t>
+          <t>2371976</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>883953</t>
+          <t>2419609</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>94,73%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286238</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286238</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286238</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1267885</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1267885</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1267885</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>2744</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2554123</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2554123</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2554123</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>25132</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>16070</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2864</t>
+          <t>37326</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4951</t>
+          <t>20118</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3214</t>
+          <t>13806</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>30365</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6418</t>
+          <t>45250</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>33627</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9053</t>
+          <t>61809</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>173897</t>
+          <t>483824</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172500</t>
+          <t>471630</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174803</t>
+          <t>492886</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>639</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>223582</t>
+          <t>475788</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>221482</t>
+          <t>465541</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>225319</t>
+          <t>482100</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>397479</t>
+          <t>959612</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>394844</t>
+          <t>943053</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>399395</t>
+          <t>971235</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>96,65%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>508956</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>508956</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>508956</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1004862</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1004862</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1004862</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13259</t>
+          <t>109096</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10398</t>
+          <t>88563</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16593</t>
+          <t>129575</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>273</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29481</t>
+          <t>186460</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25302</t>
+          <t>163047</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34822</t>
+          <t>209182</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>381</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>42740</t>
+          <t>295557</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>37495</t>
+          <t>266026</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>48376</t>
+          <t>329247</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3968</t>
+          <t>1777</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>705160</t>
+          <t>1941490</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>701826</t>
+          <t>1921011</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>708021</t>
+          <t>1962023</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4283</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>765415</t>
+          <t>2011127</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>760074</t>
+          <t>1988405</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>769594</t>
+          <t>2034540</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8251</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1470575</t>
+          <t>3952616</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1464939</t>
+          <t>3918926</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1475820</t>
+          <t>3982147</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>93,74%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2050586</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2050586</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2050586</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2197587</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2197587</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2197587</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8504</t>
+          <t>4883</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4248173</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4248173</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4248173</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
+          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23122</t>
+          <t>5283</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15664</t>
+          <t>2747</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32661</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>62143</t>
+          <t>19844</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>51021</t>
+          <t>14436</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>74970</t>
+          <t>26188</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>85266</t>
+          <t>25127</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>71810</t>
+          <t>18263</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>98215</t>
+          <t>32385</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>540</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>205175</t>
+          <t>210513</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>195636</t>
+          <t>206362</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>212633</t>
+          <t>213049</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>596</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>334054</t>
+          <t>253837</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>321227</t>
+          <t>247493</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>345176</t>
+          <t>259245</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,32%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>81,08%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>539228</t>
+          <t>464351</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>526279</t>
+          <t>457093</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>552684</t>
+          <t>471215</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>96,27%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52214</t>
+          <t>21945</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28334</t>
+          <t>16095</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72038</t>
+          <t>29836</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88500</t>
+          <t>35327</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54056</t>
+          <t>27964</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>116098</t>
+          <t>45666</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>140714</t>
+          <t>57272</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>102541</t>
+          <t>46728</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>177953</t>
+          <t>68318</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1355939</t>
+          <t>840160</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1336115</t>
+          <t>832269</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1379819</t>
+          <t>846010</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1294653</t>
+          <t>834749</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1267055</t>
+          <t>824410</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1329097</t>
+          <t>842112</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2650592</t>
+          <t>1674909</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2613353</t>
+          <t>1663863</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2688765</t>
+          <t>1685453</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>97,3%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1408153</t>
+          <t>862105</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1408153</t>
+          <t>862105</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1408153</t>
+          <t>862105</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1383153</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1383153</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1383153</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2744</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2791306</t>
+          <t>1732181</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2791306</t>
+          <t>1732181</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2791306</t>
+          <t>1732181</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23209</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14981</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34047</t>
+          <t>9179</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>7690</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11270</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25436</t>
+          <t>13461</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>40109</t>
+          <t>11799</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29148</t>
+          <t>7627</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>54893</t>
+          <t>18349</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>649</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>435760</t>
+          <t>374659</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>424922</t>
+          <t>369589</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>443988</t>
+          <t>377026</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>682</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>426474</t>
+          <t>407018</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>417938</t>
+          <t>401247</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>432104</t>
+          <t>410241</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>862234</t>
+          <t>781677</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>847450</t>
+          <t>775127</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>873195</t>
+          <t>785849</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>99,04%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>458969</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>458969</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>458969</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>902343</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>902343</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>902343</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>98545</t>
+          <t>31337</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63653</t>
+          <t>24067</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>123279</t>
+          <t>40003</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>167544</t>
+          <t>62861</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>124702</t>
+          <t>53052</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>196507</t>
+          <t>75454</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>194</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>266088</t>
+          <t>94199</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>210761</t>
+          <t>80389</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>310232</t>
+          <t>109556</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1996874</t>
+          <t>1425332</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1972140</t>
+          <t>1416666</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2031766</t>
+          <t>1432602</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2055180</t>
+          <t>1495604</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2026217</t>
+          <t>1483011</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2098022</t>
+          <t>1505413</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>5518</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4052055</t>
+          <t>2920936</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4007911</t>
+          <t>2905579</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4107382</t>
+          <t>2934746</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>97,33%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2095419</t>
+          <t>1456669</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2095419</t>
+          <t>1456669</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2095419</t>
+          <t>1456669</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2222724</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2222724</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2222724</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4883</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4318143</t>
+          <t>3015135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4318143</t>
+          <t>3015135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4318143</t>
+          <t>3015135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
+          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5283</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19844</t>
+          <t>7871</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14436</t>
+          <t>5898</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>26188</t>
+          <t>10472</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>25127</t>
+          <t>10522</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>18263</t>
+          <t>8095</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32385</t>
+          <t>13334</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>483</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>210513</t>
+          <t>79565</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>206362</t>
+          <t>78235</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>213049</t>
+          <t>80711</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>253837</t>
+          <t>113515</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>247493</t>
+          <t>110914</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>259245</t>
+          <t>115488</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>464351</t>
+          <t>193081</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>457093</t>
+          <t>190269</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>471215</t>
+          <t>195508</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>753</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21945</t>
+          <t>9140</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16095</t>
+          <t>6811</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29836</t>
+          <t>12260</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35327</t>
+          <t>16659</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27964</t>
+          <t>13298</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45666</t>
+          <t>20196</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>151</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>57272</t>
+          <t>25799</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>46728</t>
+          <t>21862</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>68318</t>
+          <t>30275</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>840160</t>
+          <t>451698</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>832269</t>
+          <t>448578</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>846010</t>
+          <t>454027</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>834749</t>
+          <t>428318</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>824410</t>
+          <t>424781</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>842112</t>
+          <t>431679</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>4991</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1674909</t>
+          <t>880016</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1663863</t>
+          <t>875540</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1685453</t>
+          <t>883953</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,59%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862105</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862105</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862105</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1732181</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1732181</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1732181</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>561</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9179</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7690</t>
+          <t>4951</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4467</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13461</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>11799</t>
+          <t>6418</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7627</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18349</t>
+          <t>9053</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>897</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>374659</t>
+          <t>173897</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>369589</t>
+          <t>172500</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>377026</t>
+          <t>174803</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>407018</t>
+          <t>223582</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>401247</t>
+          <t>221482</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>410241</t>
+          <t>225319</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>2074</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>781677</t>
+          <t>397479</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>775127</t>
+          <t>394844</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>785849</t>
+          <t>399395</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,89%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31337</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24067</t>
+          <t>10398</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40003</t>
+          <t>16593</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>175</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62861</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53052</t>
+          <t>25302</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>75454</t>
+          <t>34822</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>253</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>94199</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>80389</t>
+          <t>37495</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>109556</t>
+          <t>48376</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2781</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1425332</t>
+          <t>705160</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1416666</t>
+          <t>701826</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1432602</t>
+          <t>708021</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>4283</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1495604</t>
+          <t>765415</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1483011</t>
+          <t>760074</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1505413</t>
+          <t>769594</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>8251</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2920936</t>
+          <t>1470575</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2905579</t>
+          <t>1464939</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2934746</t>
+          <t>1475820</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,52%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456669</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456669</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456669</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>8504</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015135</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015135</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015135</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
